--- a/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
+++ b/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0320G1_LuongThienCuong\Module1\CaseStudy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="14100" windowHeight="6090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Module1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mhDJDjA64cw1gkJoKyiiIw6/cZD8w=="/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Module</t>
   </si>
@@ -383,6 +388,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -589,7 +597,7 @@
   <dimension ref="A1:J475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -734,7 +742,9 @@
         <v>2</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="8"/>
     </row>
@@ -755,7 +765,9 @@
         <v>3</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
     </row>

--- a/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
+++ b/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Module</t>
   </si>
@@ -597,7 +597,7 @@
   <dimension ref="A1:J475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -788,7 +788,9 @@
         <v>1</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
     </row>
@@ -809,7 +811,9 @@
         <v>2</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
     </row>
@@ -830,7 +834,9 @@
         <v>1</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
@@ -851,7 +857,9 @@
         <v>2</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>

--- a/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
+++ b/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Module</t>
   </si>
@@ -597,7 +597,7 @@
   <dimension ref="A1:J475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -880,7 +880,9 @@
         <v>8</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="11"/>
     </row>
@@ -901,7 +903,9 @@
         <v>9</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="11"/>
     </row>

--- a/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
+++ b/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:J475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
+++ b/Module1/CaseStudy/Check List CaseStudy C0320G1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Module</t>
   </si>
@@ -597,7 +597,7 @@
   <dimension ref="A1:J475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -926,7 +926,9 @@
         <v>1</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="11"/>
     </row>
@@ -947,7 +949,9 @@
         <v>2</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="11"/>
     </row>
